--- a/551a2_results.xlsx
+++ b/551a2_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="460" windowWidth="15420" windowHeight="13880" tabRatio="500"/>
+    <workbookView xWindow="6600" yWindow="460" windowWidth="18760" windowHeight="13880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>NBA Feature</t>
   </si>
@@ -77,7 +77,22 @@
     <t>ANIME-MUSIC &amp; avg sent length</t>
   </si>
   <si>
-    <t>ANIME-MUSIC &amp; comment length</t>
+    <t>Logistic Regresssion</t>
+  </si>
+  <si>
+    <t>Multinomial Naïve Bayes</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>SUB FEATURES</t>
+  </si>
+  <si>
+    <t>TFIDF &amp; COUNT VECTOR</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -155,6 +170,1181 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2600"/>
+              <a:t>Accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2600" baseline="0"/>
+              <a:t> for Count Vector</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.379028203804527"/>
+          <c:y val="0.051999969006533"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.149290575369519"/>
+          <c:y val="0.211201581917759"/>
+          <c:w val="0.663371649948242"/>
+          <c:h val="0.613970191021883"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Logistic Regresssion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$47:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.522857142857142</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.534714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.522642857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.523714285714285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multinomial Naïve Bayes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$47:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.544785714285714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.554285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.543785714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.547285714285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5485</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random Forest</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$47:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.391428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.403571428571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.398642857142857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.396785714285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.399571428571428</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1298247824"/>
+        <c:axId val="1359263104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1298247824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Trial</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46563383727716"/>
+              <c:y val="0.933589921259842"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359263104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1359263104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Accuracy</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0394565497911523"/>
+              <c:y val="0.45365666666245"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1298247824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.840542002312585"/>
+          <c:y val="0.378836283404159"/>
+          <c:w val="0.137484714288687"/>
+          <c:h val="0.179879003027455"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>118849</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>11753</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="M1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20:M25"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B32" zoomScale="59" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,11 +1627,11 @@
     <col min="10" max="10" width="65" customWidth="1"/>
     <col min="11" max="11" width="73.83203125" customWidth="1"/>
     <col min="12" max="12" width="64.33203125" customWidth="1"/>
-    <col min="13" max="13" width="95.33203125" customWidth="1"/>
-    <col min="14" max="14" width="69.33203125" customWidth="1"/>
+    <col min="13" max="13" width="40" customWidth="1"/>
+    <col min="14" max="15" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -478,8 +1668,14 @@
       <c r="M1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>13</v>
       </c>
@@ -517,17 +1713,20 @@
         <v>14</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>0.54592857142857099</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>0.52285714285714202</v>
       </c>
       <c r="D4" s="1">
@@ -560,8 +1759,12 @@
       <c r="M4" s="4">
         <v>0.53164285714285697</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N4" s="4">
+        <v>0.53164285714285697</v>
+      </c>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="4">
         <v>0.55428571428571405</v>
       </c>
@@ -596,8 +1799,12 @@
       <c r="M5" s="4">
         <v>0.54357142857142804</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N5" s="4">
+        <v>0.54357142857142804</v>
+      </c>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="4">
         <v>0.54628571428571404</v>
       </c>
@@ -632,8 +1839,12 @@
       <c r="M6" s="4">
         <v>0.53542857142857103</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N6" s="4">
+        <v>0.53542857142857103</v>
+      </c>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="4">
         <v>0.54664285714285699</v>
       </c>
@@ -668,8 +1879,11 @@
       <c r="M7" s="4">
         <v>0.53007142857142797</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="4">
+        <v>0.53007142857142797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="4">
         <v>0.54707142857142799</v>
       </c>
@@ -704,13 +1918,19 @@
       <c r="M8" s="4">
         <v>0.53678571428571398</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="4">
+        <v>0.53678571428571398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B9">
         <f>AVERAGE(B4:B8)</f>
         <v>0.54804285714285683</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5">
+        <f>AVERAGE(C4:C8)</f>
+        <v>0.5252857142857138</v>
+      </c>
       <c r="D9">
         <f t="shared" ref="D9:K9" si="0">AVERAGE(D4:D8)</f>
         <v>0.54788571428571409</v>
@@ -748,13 +1968,13 @@
         <v>0.53549999999999964</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -794,8 +2014,14 @@
       <c r="M12" s="4">
         <v>0.52871428571428503</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="4">
+        <v>0.52871428571428503</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0.52871428571428503</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B13" s="4">
         <v>0.56985714285714195</v>
       </c>
@@ -830,8 +2056,14 @@
       <c r="M13" s="4">
         <v>0.53514285714285703</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="4">
+        <v>0.53514285714285703</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0.53514285714285703</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>0.56028571428571405</v>
       </c>
@@ -866,8 +2098,11 @@
       <c r="M14" s="4">
         <v>0.53057142857142803</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="4">
+        <v>0.53057142857142803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="4">
         <v>0.557357142857142</v>
       </c>
@@ -902,8 +2137,11 @@
       <c r="M15" s="4">
         <v>0.52300000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="4">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="4">
         <v>0.56214285714285706</v>
       </c>
@@ -938,8 +2176,19 @@
       <c r="M16" s="4">
         <v>0.52628571428571402</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="4">
+        <v>0.52628571428571402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f>AVERAGE(B12:B16)</f>
+        <v>0.56181428571428516</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(C12:C16)</f>
+        <v>0.54772857142857112</v>
+      </c>
       <c r="D17">
         <f t="shared" ref="D17:K17" si="1">AVERAGE(D12:D16)</f>
         <v>0.56137499999999951</v>
@@ -977,7 +2226,7 @@
         <v>0.52874285714285685</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1017,8 +2266,14 @@
       <c r="M20" s="4">
         <v>0.40957142857142798</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="4">
+        <v>0.41435714285714198</v>
+      </c>
+      <c r="O20" s="4">
+        <v>0.41521428571428498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B21" s="4">
         <v>0.40764285714285697</v>
       </c>
@@ -1053,8 +2308,14 @@
       <c r="M21" s="4">
         <v>0.42957142857142799</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="4">
+        <v>0.42542857142857099</v>
+      </c>
+      <c r="O21" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B22" s="4">
         <v>0.40042857142857102</v>
       </c>
@@ -1089,8 +2350,11 @@
       <c r="M22" s="4">
         <v>0.41978571428571398</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="4">
+        <v>0.42357142857142799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B23" s="4">
         <v>0.39850000000000002</v>
       </c>
@@ -1125,8 +2389,11 @@
       <c r="M23" s="4">
         <v>0.41549999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="4">
+        <v>0.41507142857142798</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B24" s="4">
         <v>0.39771428571428502</v>
       </c>
@@ -1161,8 +2428,11 @@
       <c r="M24" s="4">
         <v>0.41385714285714198</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="4">
+        <v>0.41171428571428498</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B25">
         <f>AVERAGE(B20:B24)</f>
         <v>0.39954285714285681</v>
@@ -1208,8 +2478,141 @@
         <v>0.41765714285714239</v>
       </c>
     </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="4">
+        <v>0.54592857142857099</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.55942857142857105</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.39342857142857102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="4">
+        <v>0.55428571428571405</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.56985714285714195</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.40764285714285697</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="4">
+        <v>0.54628571428571404</v>
+      </c>
+      <c r="C39">
+        <v>0.56028571428571405</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.40042857142857102</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="4">
+        <v>0.54664285714285699</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.557357142857142</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.39850000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="4">
+        <v>0.54707142857142799</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.56214285714285706</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.39771428571428502</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="6">
+        <v>0.52285714285714202</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.54478571428571398</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.39142857142857101</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="4">
+        <v>0.53471428571428503</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.55428571428571405</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.40357142857142803</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="4">
+        <v>0.52249999999999996</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.54378571428571398</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.39864285714285702</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="4">
+        <v>0.52264285714285696</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.54728571428571404</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.39678571428571402</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="4">
+        <v>0.52371428571428502</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.39957142857142802</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>